--- a/analysis/Houseprices_R.xlsx
+++ b/analysis/Houseprices_R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colte\Documents\.School\__MaturaProject\DataSimulation\MigrationBaden\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783EDDC-27A3-47EF-8B1C-34D777845F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C0DD3D-3A58-4159-864A-0DDE1FF8F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -381,6 +381,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,14 +408,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,12 +425,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,133 +768,133 @@
     <col min="37" max="40" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>4021</v>
       </c>
       <c r="D2" t="s">
@@ -930,49 +939,49 @@
       <c r="R2" s="2">
         <v>1.7</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2">
         <v>-0.4</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2">
         <v>-0.7</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2">
         <v>1.7</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2">
         <v>0.3</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2">
         <v>2.6</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2">
         <v>-0.7</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>0.8</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2">
         <v>2.7</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2">
         <v>-2.5</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2">
         <v>1.6</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2">
         <v>0.9</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2">
         <v>-0.3</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2">
         <v>-0.3</v>
       </c>
       <c r="AH2" s="1">
@@ -998,13 +1007,13 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>4022</v>
       </c>
       <c r="D3" t="s">
@@ -1046,49 +1055,49 @@
       <c r="R3" s="2">
         <v>0.4</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3">
         <v>1.3</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3">
         <v>0.9</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3">
         <v>-1</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3">
         <v>2.9</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3">
         <v>0.2</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3">
         <v>2.7</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3">
         <v>1.5</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3">
         <v>2.6</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3">
         <v>0.6</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3">
         <v>1.6</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3">
         <v>2</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3">
         <v>0.9</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3">
         <v>-1.6</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3">
         <v>-1.6</v>
       </c>
       <c r="AH3" s="1">
@@ -1114,13 +1123,13 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>4023</v>
       </c>
       <c r="D4" t="s">
@@ -1165,49 +1174,49 @@
       <c r="R4" s="2">
         <v>-0.8</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4">
         <v>3.1</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4">
         <v>1.7</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4">
         <v>0.8</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4">
         <v>1.2</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4">
         <v>0.9</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>1.9</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4">
         <v>3.2</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4">
         <v>2</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4">
         <v>3.7</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4">
         <v>1.4</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4">
         <v>-0.5</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4">
         <v>-0.6</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4">
         <v>-0.6</v>
       </c>
       <c r="AH4" s="1">
@@ -1233,13 +1242,13 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>4024</v>
       </c>
       <c r="D5" t="s">
@@ -1284,49 +1293,49 @@
       <c r="R5" s="2">
         <v>0.4</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5">
         <v>1.3</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5">
         <v>0.9</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5">
         <v>-1</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5">
         <v>2.9</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5">
         <v>0.2</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <v>2.7</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5">
         <v>1.5</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5">
         <v>2.6</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5">
         <v>1.6</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5">
         <v>2</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5">
         <v>0.9</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5">
         <v>-1.6</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5">
         <v>-1.6</v>
       </c>
       <c r="AH5" s="1">
@@ -1352,13 +1361,13 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>4049</v>
       </c>
       <c r="D6" t="s">
@@ -1403,49 +1412,49 @@
       <c r="R6" s="2">
         <v>0.4</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6">
         <v>1.3</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6">
         <v>0.9</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6">
         <v>-1</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6">
         <v>2.9</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6">
         <v>0.2</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>2.7</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6">
         <v>1.5</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6">
         <v>2.6</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6">
         <v>0.6</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6">
         <v>1.6</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6">
         <v>2</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6">
         <v>0.9</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6">
         <v>-1.6</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6">
         <v>-1.6</v>
       </c>
       <c r="AH6" s="1">
@@ -1471,13 +1480,13 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>4026</v>
       </c>
       <c r="D7" t="s">
@@ -1522,49 +1531,49 @@
       <c r="R7" s="2">
         <v>1.7</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7">
         <v>-0.4</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7">
         <v>-0.7</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7">
         <v>1.7</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7">
         <v>0.3</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7">
         <v>2.6</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7">
         <v>-0.7</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <v>0.8</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7">
         <v>2.7</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7">
         <v>-2.5</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7">
         <v>1.6</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7">
         <v>0.9</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7">
         <v>-0.3</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7">
         <v>-0.3</v>
       </c>
       <c r="AH7" s="1">
@@ -1590,13 +1599,13 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>4027</v>
       </c>
       <c r="D8" t="s">
@@ -1641,49 +1650,49 @@
       <c r="R8" s="2">
         <v>1.7</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8">
         <v>-0.4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8">
         <v>-0.7</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8">
         <v>1.7</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8">
         <v>0.3</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8">
         <v>2.6</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8">
         <v>-0.7</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>0.8</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8">
         <v>2.7</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
         <v>-2.5</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8">
         <v>1.6</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8">
         <v>0.9</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8">
         <v>-0.3</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8">
         <v>-0.3</v>
       </c>
       <c r="AH8" s="1">
@@ -1709,13 +1718,13 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>4028</v>
       </c>
       <c r="D9" t="s">
@@ -1760,49 +1769,49 @@
       <c r="R9" s="2">
         <v>0.3</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9">
         <v>2.5</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9">
         <v>-0.8</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9">
         <v>0.7</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9">
         <v>0.9</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9">
         <v>2.9</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9">
         <v>-2</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>3.4</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9">
         <v>2.4</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9">
         <v>4.2</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9">
         <v>-2.2999999999999901</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9">
         <v>4.2</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9">
         <v>-0.8</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9">
         <v>4.8</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9">
         <v>-3.2</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9">
         <v>-3.2</v>
       </c>
       <c r="AH9" s="1">
@@ -1828,13 +1837,13 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>4029</v>
       </c>
       <c r="D10" t="s">
@@ -1879,49 +1888,49 @@
       <c r="R10" s="2">
         <v>1.7</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10">
         <v>-0.4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10">
         <v>-0.7</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10">
         <v>1.7</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10">
         <v>0.3</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10">
         <v>2.6</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10">
         <v>-0.7</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <v>0.8</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10">
         <v>2.7</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10">
         <v>-2.5</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10">
         <v>1.6</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10">
         <v>0.9</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10">
         <v>-0.3</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10">
         <v>-0.3</v>
       </c>
       <c r="AH10" s="1">
@@ -1947,13 +1956,13 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>4030</v>
       </c>
       <c r="D11" t="s">
@@ -1998,49 +2007,49 @@
       <c r="R11" s="2">
         <v>-0.8</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11">
         <v>3.1</v>
       </c>
       <c r="T11" s="2">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11">
         <v>1.7</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11">
         <v>0.8</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11">
         <v>1.2</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11">
         <v>0.9</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <v>1.9</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11">
         <v>3.2</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11">
         <v>2</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11">
         <v>3.7</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11">
         <v>1.4</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11">
         <v>-0.5</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11">
         <v>-0.6</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11">
         <v>-0.6</v>
       </c>
       <c r="AH11" s="1">
@@ -2066,13 +2075,13 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>4031</v>
       </c>
       <c r="D12" t="s">
@@ -2117,49 +2126,49 @@
       <c r="R12" s="2">
         <v>0.3</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12">
         <v>2.5</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12">
         <v>-0.8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12">
         <v>0.7</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12">
         <v>0.9</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12">
         <v>2.9</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12">
         <v>-2</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <v>3.4</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12">
         <v>2.4</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12">
         <v>4.2</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12">
         <v>-2.2999999999999901</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12">
         <v>4.2</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12">
         <v>-0.8</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12">
         <v>4.8</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12">
         <v>-3.2</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG12">
         <v>-3.2</v>
       </c>
       <c r="AH12" s="1">
@@ -2185,13 +2194,13 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>4032</v>
       </c>
       <c r="D13" t="s">
@@ -2236,49 +2245,49 @@
       <c r="R13" s="2">
         <v>0.4</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13">
         <v>1.3</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13">
         <v>0.9</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13">
         <v>-1</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13">
         <v>2.9</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13">
         <v>0.2</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <v>2.7</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13">
         <v>1.5</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13">
         <v>2.6</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13">
         <v>0.6</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13">
         <v>1.6</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13">
         <v>2</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13">
         <v>0.9</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13">
         <v>-1.6</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13">
         <v>-1.6</v>
       </c>
       <c r="AH13" s="1">
@@ -2304,13 +2313,13 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>4033</v>
       </c>
       <c r="D14" t="s">
@@ -2355,49 +2364,49 @@
       <c r="R14" s="2">
         <v>0.4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14">
         <v>1.3</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14">
         <v>0.9</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14">
         <v>-1</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14">
         <v>2.9</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14">
         <v>0.2</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>2.7</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14">
         <v>1.5</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14">
         <v>2.6</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14">
         <v>0.6</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14">
         <v>1.6</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14">
         <v>2</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14">
         <v>0.9</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14">
         <v>-1.6</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14">
         <v>-1.6</v>
       </c>
       <c r="AH14" s="1">
@@ -2423,13 +2432,13 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>4034</v>
       </c>
       <c r="D15" t="s">
@@ -2468,52 +2477,52 @@
       <c r="Q15" s="2">
         <v>0.6</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15">
         <v>1.7</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15">
         <v>-0.4</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15">
         <v>-0.7</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15">
         <v>1.7</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15">
         <v>0.3</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15">
         <v>2.6</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15">
         <v>-0.7</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>0.8</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15">
         <v>2.7</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15">
         <v>-2.5</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15">
         <v>1.6</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15">
         <v>0.9</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15">
         <v>-0.3</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AG15">
         <v>-0.3</v>
       </c>
       <c r="AH15" s="1">
@@ -2539,13 +2548,13 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>4035</v>
       </c>
       <c r="D16" t="s">
@@ -2584,52 +2593,52 @@
       <c r="Q16" s="2">
         <v>-1.3</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16">
         <v>0.4</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16">
         <v>1.3</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16">
         <v>0.9</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16">
         <v>-1</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16">
         <v>2.9</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16">
         <v>0.2</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>2.7</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16">
         <v>1.5</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16">
         <v>2.6</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16">
         <v>0.6</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16">
         <v>1.6</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16">
         <v>2</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16">
         <v>0.9</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16">
         <v>-1.6</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG16">
         <v>-1.6</v>
       </c>
       <c r="AH16" s="1">
@@ -2655,13 +2664,13 @@
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>4037</v>
       </c>
       <c r="D17" t="s">
@@ -2706,49 +2715,49 @@
       <c r="R17" s="2">
         <v>0.4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <v>1.3</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <v>0.9</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17">
         <v>-1</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17">
         <v>2.9</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17">
         <v>0.2</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <v>2.7</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17">
         <v>1.5</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17">
         <v>2.6</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17">
         <v>0.6</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17">
         <v>1.6</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17">
         <v>2</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17">
         <v>0.9</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17">
         <v>-1.6</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG17">
         <v>-1.6</v>
       </c>
       <c r="AH17" s="1">
@@ -2774,13 +2783,13 @@
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>4038</v>
       </c>
       <c r="D18" t="s">
@@ -2825,49 +2834,49 @@
       <c r="R18" s="2">
         <v>1.7</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18">
         <v>-0.4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <v>-0.7</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18">
         <v>1.7</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18">
         <v>0.3</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18">
         <v>2.6</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18">
         <v>-0.7</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <v>0.8</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18">
         <v>2.7</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18">
         <v>-2.5</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18">
         <v>1.6</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18">
         <v>0.9</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18">
         <v>-0.3</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG18">
         <v>-0.3</v>
       </c>
       <c r="AH18" s="1">
@@ -2893,13 +2902,13 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>4039</v>
       </c>
       <c r="D19" t="s">
@@ -2944,49 +2953,49 @@
       <c r="R19" s="2">
         <v>0.4</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19">
         <v>1.3</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19">
         <v>0.9</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19">
         <v>-1</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19">
         <v>2.9</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19">
         <v>0.2</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <v>2.7</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19">
         <v>1.5</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19">
         <v>2.6</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19">
         <v>0.6</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19">
         <v>1.6</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19">
         <v>2</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19">
         <v>0.9</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19">
         <v>-1.6</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG19">
         <v>-1.6</v>
       </c>
       <c r="AH19" s="1">
@@ -3012,13 +3021,13 @@
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>4040</v>
       </c>
       <c r="D20" t="s">
@@ -3063,49 +3072,49 @@
       <c r="R20" s="2">
         <v>-0.8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20">
         <v>3.1</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20">
         <v>1.7</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20">
         <v>0.8</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20">
         <v>1.2</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20">
         <v>0.9</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20">
         <v>1.9</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20">
         <v>3.2</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20">
         <v>0.5</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20">
         <v>3.7</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20">
         <v>1.4</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20">
         <v>-0.5</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20">
         <v>-0.6</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG20">
         <v>-0.6</v>
       </c>
       <c r="AH20" s="1">
@@ -3131,13 +3140,13 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>4041</v>
       </c>
       <c r="D21" t="s">
@@ -3173,52 +3182,52 @@
       <c r="Q21" s="2">
         <v>-1.3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21">
         <v>0.4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21">
         <v>1.3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21">
         <v>0.9</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21">
         <v>-1</v>
       </c>
       <c r="W21" s="2">
         <v>2.9</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21">
         <v>0.2</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21">
         <v>2.7</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21">
         <v>1.5</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21">
         <v>2.6</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21">
         <v>0.6</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21">
         <v>1.6</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21">
         <v>2</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21">
         <v>0.9</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21">
         <v>-1.6</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21">
         <v>-1.6</v>
       </c>
       <c r="AH21" s="1">
@@ -3244,13 +3253,13 @@
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>4042</v>
       </c>
       <c r="D22" t="s">
@@ -3295,49 +3304,49 @@
       <c r="R22" s="2">
         <v>1.7</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22">
         <v>-0.4</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22">
         <v>-0.7</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22">
         <v>1.7</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22">
         <v>0.3</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22">
         <v>2.6</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22">
         <v>-0.7</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22">
         <v>0.8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22">
         <v>2.7</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22">
         <v>-2.5</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22">
         <v>1.6</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22">
         <v>0.9</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22">
         <v>-0.3</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG22">
         <v>-0.3</v>
       </c>
       <c r="AH22" s="1">
@@ -3363,13 +3372,13 @@
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>4044</v>
       </c>
       <c r="D23" t="s">
@@ -3414,49 +3423,49 @@
       <c r="R23" s="2">
         <v>1.7</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23">
         <v>-0.4</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23">
         <v>-0.7</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23">
         <v>1.7</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23">
         <v>0.3</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23">
         <v>2.6</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23">
         <v>-0.7</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <v>0.8</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23">
         <v>2.7</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23">
         <v>-2.5</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23">
         <v>1.6</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23">
         <v>0.9</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF23">
         <v>-0.3</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG23">
         <v>-0.3</v>
       </c>
       <c r="AH23" s="1">
@@ -3482,13 +3491,13 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>4045</v>
       </c>
       <c r="D24" t="s">
@@ -3533,49 +3542,49 @@
       <c r="R24" s="2">
         <v>1.7</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24">
         <v>-0.4</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24">
         <v>-0.7</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24">
         <v>1.7</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24">
         <v>0.3</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24">
         <v>2.6</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24">
         <v>-0.7</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24">
         <v>2.7</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24">
         <v>5.0999999999999899</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24">
         <v>-2.5</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24">
         <v>1.6</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24">
         <v>0.9</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF24">
         <v>-0.3</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG24">
         <v>-0.3</v>
       </c>
       <c r="AH24" s="1">
@@ -3601,13 +3610,13 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>4046</v>
       </c>
       <c r="D25" t="s">
@@ -3649,49 +3658,49 @@
       <c r="R25" s="2">
         <v>0.4</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25">
         <v>1.3</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25">
         <v>0.9</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25">
         <v>-1</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25">
         <v>2.9</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25">
         <v>0.2</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>2.7</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25">
         <v>1.5</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25">
         <v>2.6</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB25">
         <v>0.6</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC25">
         <v>1.6</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25">
         <v>2</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE25">
         <v>0.9</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF25">
         <v>-1.6</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG25">
         <v>-1.6</v>
       </c>
       <c r="AH25" s="1">
@@ -3717,13 +3726,13 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>4047</v>
       </c>
       <c r="D26" t="s">
@@ -3768,49 +3777,49 @@
       <c r="R26" s="2">
         <v>0.4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26">
         <v>1.3</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26">
         <v>0.9</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26">
         <v>-1</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26">
         <v>2.9</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26">
         <v>0.2</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <v>2.7</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26">
         <v>1.5</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26">
         <v>2.6</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26">
         <v>0.6</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26">
         <v>1.6</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26">
         <v>2</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE26">
         <v>0.9</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF26">
         <v>-1.6</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG26">
         <v>-1.6</v>
       </c>
       <c r="AH26" s="1">
@@ -3836,13 +3845,13 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>4048</v>
       </c>
       <c r="D27" t="s">
@@ -3887,49 +3896,49 @@
       <c r="R27" s="2">
         <v>-0.8</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27">
         <v>3.1</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27">
         <v>1.7</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27">
         <v>0.8</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27">
         <v>1.2</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27">
         <v>0.9</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27">
         <v>1.9</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27">
         <v>3.2</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27">
         <v>0.5</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27">
         <v>2</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC27">
         <v>3.7</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27">
         <v>1.4</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE27">
         <v>-0.5</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF27">
         <v>-0.6</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG27">
         <v>-0.6</v>
       </c>
       <c r="AH27" s="1">
@@ -3955,7 +3964,7 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
@@ -4161,7 +4170,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" xr:uid="{22A59400-1C18-4B45-87DA-5E4332FABDF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>